--- a/InterviewTest/output/230031/230031_failed.xlsx
+++ b/InterviewTest/output/230031/230031_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230031\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDC0B63-6F4B-4959-B02B-0F807C6C6530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86944828-111D-48BA-BA21-2EF370BD92DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230031/230031_failed.xlsx
+++ b/InterviewTest/output/230031/230031_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230031\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230031\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86944828-111D-48BA-BA21-2EF370BD92DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8CE26-D45C-449D-8B1F-F52DBB7AA891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39449</v>
+        <v>39479</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230031/230031_failed.xlsx
+++ b/InterviewTest/output/230031/230031_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230031\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230031\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8CE26-D45C-449D-8B1F-F52DBB7AA891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A4032C-19A7-4374-A8A2-B08D267F4D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -89,7 +89,7 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>Nguyễn Lê Tâm Anh</t>
+    <t>Tống Phương Anh</t>
   </si>
   <si>
     <t>null</t>
@@ -539,23 +539,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39479</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -586,8 +586,8 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
+      <c r="B9" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" thickBot="1">
